--- a/CheatSheets/ExcelLinearRegressionCheatSheet.xlsx
+++ b/CheatSheets/ExcelLinearRegressionCheatSheet.xlsx
@@ -30,7 +30,7 @@
     <author>Petros Makariadis</author>
   </authors>
   <commentList>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="D13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0">
+    <comment ref="C22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0">
+    <comment ref="D22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
+    <comment ref="E22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0">
+    <comment ref="F22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0">
+    <comment ref="C24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>AgeMonths</t>
   </si>
@@ -354,6 +354,9 @@
 This means that for every one unit of X, Y will increase by 0.538709278
 </t>
   </si>
+  <si>
+    <t>created by: pmakaria</t>
+  </si>
 </sst>
 </file>
 
@@ -421,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -509,11 +512,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -534,6 +552,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -819,7 +838,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Regression!$C$29:$C$98</c:f>
+              <c:f>Regression!$C$31:$C$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -1046,11 +1065,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="588926200"/>
-        <c:axId val="588927768"/>
+        <c:axId val="475215664"/>
+        <c:axId val="475212136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="588926200"/>
+        <c:axId val="475215664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -1081,12 +1100,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="588927768"/>
+        <c:crossAx val="475212136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="588927768"/>
+        <c:axId val="475212136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-10"/>
@@ -1116,7 +1135,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="588926200"/>
+        <c:crossAx val="475215664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1855,7 +1874,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Regression!$B$29:$B$98</c:f>
+              <c:f>Regression!$B$31:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -2082,11 +2101,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472296472"/>
-        <c:axId val="588928944"/>
+        <c:axId val="475209784"/>
+        <c:axId val="475210960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472296472"/>
+        <c:axId val="475209784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -2117,12 +2136,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="588928944"/>
+        <c:crossAx val="475210960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="588928944"/>
+        <c:axId val="475210960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -2153,7 +2172,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472296472"/>
+        <c:crossAx val="475209784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2181,13 +2200,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2211,13 +2230,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2503,15 +2522,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.19921875" customWidth="1"/>
+    <col min="1" max="1" width="53.296875" customWidth="1"/>
     <col min="2" max="2" width="16.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74.296875" customWidth="1"/>
     <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
@@ -2520,164 +2539,153 @@
     <col min="8" max="9" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.97641872482144543</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.95339352618193762</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.97641872482144543</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.95339352618193762</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="2">
         <v>0.95270813686108369</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:7" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="2">
         <v>2.9021700231403473</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B10" s="3">
         <v>70</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:7" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C14" s="2">
         <v>11716.032536947136</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D14" s="2">
         <v>11716.032536947136</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E14" s="2">
         <v>1391.0247755161952</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F14" s="2">
         <v>5.2640799521998957E-47</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B15" s="2">
         <v>68</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C15" s="2">
         <v>572.73617733858225</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D15" s="2">
         <v>8.4225908432144454</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <v>69</v>
-      </c>
-      <c r="C14" s="3">
-        <v>12288.768714285718</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+    <row r="16" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>69</v>
+      </c>
+      <c r="C16" s="3">
+        <v>12288.768714285718</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
@@ -2695,881 +2703,897 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B23" s="2">
         <v>78.677244952554659</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C23" s="2">
         <v>2.0545405168248827</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D23" s="2">
         <v>38.2943263022837</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E23" s="2">
         <v>9.4733168185352472E-48</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F23" s="2">
         <v>74.577473182866797</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G23" s="2">
         <v>82.777016722242521</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H23" s="2">
         <v>74.577473182866797</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I23" s="2">
         <v>82.777016722242521</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="24" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B24" s="3">
         <v>0.53870927790107737</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C24" s="3">
         <v>1.4443984795557476E-2</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D24" s="3">
         <v>37.296444542559179</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E24" s="3">
         <v>5.264079952200271E-47</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F24" s="3">
         <v>0.5098867549954974</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G24" s="3">
         <v>0.56753180080665733</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H24" s="3">
         <v>0.5098867549954974</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I24" s="3">
         <v>0.56753180080665733</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="190.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+    <row r="26" spans="1:9" ht="190.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2">
-        <v>133.08688202056348</v>
-      </c>
-      <c r="C29" s="2">
-        <v>-2.086882020563479</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>2</v>
-      </c>
-      <c r="B30" s="2">
-        <v>133.62559129846454</v>
-      </c>
-      <c r="C30" s="2">
-        <v>-1.125591298464542</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" s="2">
-        <v>134.16430057636563</v>
+        <v>133.08688202056348</v>
       </c>
       <c r="C31" s="2">
-        <v>-0.66430057636563333</v>
+        <v>-2.086882020563479</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" s="2">
-        <v>135.24171913216779</v>
+        <v>133.62559129846454</v>
       </c>
       <c r="C32" s="2">
-        <v>-1.2417191321677876</v>
+        <v>-1.125591298464542</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33" s="2">
-        <v>135.78042841006885</v>
+        <v>134.16430057636563</v>
       </c>
       <c r="C33" s="2">
-        <v>-1.7804284100688506</v>
+        <v>-0.66430057636563333</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>136.31913768796994</v>
+        <v>135.24171913216779</v>
       </c>
       <c r="C34" s="2">
-        <v>-2.3191376879699419</v>
+        <v>-1.2417191321677876</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B35" s="2">
-        <v>137.3965562437721</v>
+        <v>135.78042841006885</v>
       </c>
       <c r="C35" s="2">
-        <v>-1.3965562437720962</v>
+        <v>-1.7804284100688506</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36" s="2">
-        <v>137.93526552167316</v>
+        <v>136.31913768796994</v>
       </c>
       <c r="C36" s="2">
-        <v>-0.93526552167315913</v>
+        <v>-2.3191376879699419</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B37" s="2">
-        <v>138.47397479957425</v>
+        <v>137.3965562437721</v>
       </c>
       <c r="C37" s="2">
-        <v>0.52602520042574952</v>
+        <v>-1.3965562437720962</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B38" s="2">
-        <v>139.5513933553764</v>
+        <v>137.93526552167316</v>
       </c>
       <c r="C38" s="2">
-        <v>0.44860664462359523</v>
+        <v>-0.93526552167315913</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B39" s="2">
-        <v>139.5513933553764</v>
+        <v>138.47397479957425</v>
       </c>
       <c r="C39" s="2">
-        <v>0.44860664462359523</v>
+        <v>0.52602520042574952</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B40" s="2">
-        <v>140.62881191117856</v>
+        <v>139.5513933553764</v>
       </c>
       <c r="C40" s="2">
-        <v>-0.62881191117855906</v>
+        <v>0.44860664462359523</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B41" s="2">
-        <v>140.62881191117856</v>
+        <v>139.5513933553764</v>
       </c>
       <c r="C41" s="2">
-        <v>0.37118808882144094</v>
+        <v>0.44860664462359523</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42" s="2">
-        <v>141.16752118907965</v>
+        <v>140.62881191117856</v>
       </c>
       <c r="C42" s="2">
-        <v>0.83247881092034959</v>
+        <v>-0.62881191117855906</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B43" s="2">
-        <v>141.70623046698071</v>
+        <v>140.62881191117856</v>
       </c>
       <c r="C43" s="2">
-        <v>0.29376953301928665</v>
+        <v>0.37118808882144094</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44" s="2">
-        <v>142.24493974488178</v>
+        <v>141.16752118907965</v>
       </c>
       <c r="C44" s="2">
-        <v>0.75506025511822372</v>
+        <v>0.83247881092034959</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B45" s="2">
-        <v>142.78364902278287</v>
+        <v>141.70623046698071</v>
       </c>
       <c r="C45" s="2">
-        <v>0.21635097721713237</v>
+        <v>0.29376953301928665</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B46" s="2">
-        <v>143.32235830068396</v>
+        <v>142.24493974488178</v>
       </c>
       <c r="C46" s="2">
-        <v>0.67764169931604101</v>
+        <v>0.75506025511822372</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B47" s="2">
-        <v>143.86106757858502</v>
+        <v>142.78364902278287</v>
       </c>
       <c r="C47" s="2">
-        <v>0.13893242141497808</v>
+        <v>0.21635097721713237</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B48" s="2">
-        <v>144.39977685648608</v>
+        <v>143.32235830068396</v>
       </c>
       <c r="C48" s="2">
-        <v>-0.39977685648608485</v>
+        <v>0.67764169931604101</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B49" s="2">
-        <v>144.93848613438718</v>
+        <v>143.86106757858502</v>
       </c>
       <c r="C49" s="2">
-        <v>6.1513865612823793E-2</v>
+        <v>0.13893242141497808</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B50" s="2">
-        <v>145.47719541228827</v>
+        <v>144.39977685648608</v>
       </c>
       <c r="C50" s="2">
-        <v>-0.47719541228826756</v>
+        <v>-0.39977685648608485</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B51" s="2">
-        <v>146.01590469018933</v>
+        <v>144.93848613438718</v>
       </c>
       <c r="C51" s="2">
-        <v>-1.0159046901893305</v>
+        <v>6.1513865612823793E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B52" s="2">
-        <v>146.55461396809039</v>
+        <v>145.47719541228827</v>
       </c>
       <c r="C52" s="2">
-        <v>-1.5546139680903934</v>
+        <v>-0.47719541228826756</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B53" s="2">
-        <v>147.09332324599148</v>
+        <v>146.01590469018933</v>
       </c>
       <c r="C53" s="2">
-        <v>-2.0933232459914848</v>
+        <v>-1.0159046901893305</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B54" s="2">
-        <v>147.63203252389258</v>
+        <v>146.55461396809039</v>
       </c>
       <c r="C54" s="2">
-        <v>-1.6320325238925761</v>
+        <v>-1.5546139680903934</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B55" s="2">
-        <v>148.7094510796947</v>
+        <v>147.09332324599148</v>
       </c>
       <c r="C55" s="2">
-        <v>-1.709451079694702</v>
+        <v>-2.0933232459914848</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B56" s="2">
-        <v>149.24816035759579</v>
+        <v>147.63203252389258</v>
       </c>
       <c r="C56" s="2">
-        <v>-2.2481603575957934</v>
+        <v>-1.6320325238925761</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B57" s="2">
-        <v>149.78686963549688</v>
+        <v>148.7094510796947</v>
       </c>
       <c r="C57" s="2">
-        <v>-1.7868696354968847</v>
+        <v>-1.709451079694702</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B58" s="2">
-        <v>150.32557891339795</v>
+        <v>149.24816035759579</v>
       </c>
       <c r="C58" s="2">
-        <v>-2.3255789133979476</v>
+        <v>-2.2481603575957934</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B59" s="2">
-        <v>150.86428819129901</v>
+        <v>149.78686963549688</v>
       </c>
       <c r="C59" s="2">
-        <v>-2.8642881912990106</v>
+        <v>-1.7868696354968847</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B60" s="2">
-        <v>151.4029974692001</v>
+        <v>150.32557891339795</v>
       </c>
       <c r="C60" s="2">
-        <v>-2.4029974692001019</v>
+        <v>-2.3255789133979476</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B61" s="2">
-        <v>151.94170674710119</v>
+        <v>150.86428819129901</v>
       </c>
       <c r="C61" s="2">
-        <v>-1.9417067471011933</v>
+        <v>-2.8642881912990106</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B62" s="2">
-        <v>152.48041602500226</v>
+        <v>151.4029974692001</v>
       </c>
       <c r="C62" s="2">
-        <v>-2.4804160250022562</v>
+        <v>-2.4029974692001019</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B63" s="2">
-        <v>153.01912530290332</v>
+        <v>151.94170674710119</v>
       </c>
       <c r="C63" s="2">
-        <v>-1.0191253029033192</v>
+        <v>-1.9417067471011933</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B64" s="2">
-        <v>153.55783458080441</v>
+        <v>152.48041602500226</v>
       </c>
       <c r="C64" s="2">
-        <v>-0.55783458080441051</v>
+        <v>-2.4804160250022562</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B65" s="2">
-        <v>154.0965438587055</v>
+        <v>153.01912530290332</v>
       </c>
       <c r="C65" s="2">
-        <v>-1.0965438587055019</v>
+        <v>-1.0191253029033192</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B66" s="2">
-        <v>155.17396241450763</v>
+        <v>153.55783458080441</v>
       </c>
       <c r="C66" s="2">
-        <v>-1.1739624145076277</v>
+        <v>-0.55783458080441051</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B67" s="2">
-        <v>155.71267169240872</v>
+        <v>154.0965438587055</v>
       </c>
       <c r="C67" s="2">
-        <v>-0.71267169240871908</v>
+        <v>-1.0965438587055019</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B68" s="2">
-        <v>156.25138097030981</v>
+        <v>155.17396241450763</v>
       </c>
       <c r="C68" s="2">
-        <v>0.74861902969018956</v>
+        <v>-1.1739624145076277</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B69" s="2">
-        <v>156.79009024821087</v>
+        <v>155.71267169240872</v>
       </c>
       <c r="C69" s="2">
-        <v>0.20990975178912663</v>
+        <v>-0.71267169240871908</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B70" s="2">
-        <v>157.32879952611194</v>
+        <v>156.25138097030981</v>
       </c>
       <c r="C70" s="2">
-        <v>1.1712004738880637</v>
+        <v>0.74861902969018956</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B71" s="2">
-        <v>157.86750880401303</v>
+        <v>156.79009024821087</v>
       </c>
       <c r="C71" s="2">
-        <v>3.1324911959869723</v>
+        <v>0.20990975178912663</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B72" s="2">
-        <v>158.40621808191412</v>
+        <v>157.32879952611194</v>
       </c>
       <c r="C72" s="2">
-        <v>3.093781918085881</v>
+        <v>1.1712004738880637</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B73" s="2">
-        <v>158.94492735981518</v>
+        <v>157.86750880401303</v>
       </c>
       <c r="C73" s="2">
-        <v>3.855072640184801</v>
+        <v>3.1324911959869723</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="11">
-        <v>46</v>
-      </c>
-      <c r="B74" s="11">
-        <v>159.48363663771624</v>
-      </c>
-      <c r="C74" s="11">
-        <v>3.5163633622837551</v>
+      <c r="A74" s="2">
+        <v>44</v>
+      </c>
+      <c r="B74" s="2">
+        <v>158.40621808191412</v>
+      </c>
+      <c r="C74" s="2">
+        <v>3.093781918085881</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B75" s="2">
-        <v>160.56105519351843</v>
+        <v>158.94492735981518</v>
       </c>
       <c r="C75" s="2">
-        <v>2.4389448064815724</v>
+        <v>3.855072640184801</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>48</v>
-      </c>
-      <c r="B76" s="2">
-        <v>161.09976447141949</v>
-      </c>
-      <c r="C76" s="2">
-        <v>3.4002355285805095</v>
+      <c r="A76" s="11">
+        <v>46</v>
+      </c>
+      <c r="B76" s="11">
+        <v>159.48363663771624</v>
+      </c>
+      <c r="C76" s="11">
+        <v>3.5163633622837551</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B77" s="2">
-        <v>161.63847374932055</v>
+        <v>160.56105519351843</v>
       </c>
       <c r="C77" s="2">
-        <v>3.3615262506794465</v>
+        <v>2.4389448064815724</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B78" s="2">
-        <v>162.17718302722164</v>
+        <v>161.09976447141949</v>
       </c>
       <c r="C78" s="2">
-        <v>2.8228169727783552</v>
+        <v>3.4002355285805095</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B79" s="2">
-        <v>162.71589230512274</v>
+        <v>161.63847374932055</v>
       </c>
       <c r="C79" s="2">
-        <v>3.7841076948772638</v>
+        <v>3.3615262506794465</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B80" s="2">
-        <v>162.71589230512274</v>
+        <v>162.17718302722164</v>
       </c>
       <c r="C80" s="2">
-        <v>4.2841076948772638</v>
+        <v>2.8228169727783552</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B81" s="2">
-        <v>163.79331086092486</v>
+        <v>162.71589230512274</v>
       </c>
       <c r="C81" s="2">
-        <v>4.206689139075138</v>
+        <v>3.7841076948772638</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B82" s="2">
-        <v>164.33202013882595</v>
+        <v>162.71589230512274</v>
       </c>
       <c r="C82" s="2">
-        <v>4.1679798611740466</v>
+        <v>4.2841076948772638</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B83" s="2">
-        <v>164.87072941672704</v>
+        <v>163.79331086092486</v>
       </c>
       <c r="C83" s="2">
-        <v>4.1292705832729553</v>
+        <v>4.206689139075138</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B84" s="2">
-        <v>165.40943869462814</v>
+        <v>164.33202013882595</v>
       </c>
       <c r="C84" s="2">
-        <v>4.5905613053718639</v>
+        <v>4.1679798611740466</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B85" s="2">
-        <v>165.9481479725292</v>
+        <v>164.87072941672704</v>
       </c>
       <c r="C85" s="2">
-        <v>4.051852027470801</v>
+        <v>4.1292705832729553</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B86" s="2">
-        <v>167.02556652833135</v>
+        <v>165.40943869462814</v>
       </c>
       <c r="C86" s="2">
-        <v>3.4744334716686467</v>
+        <v>4.5905613053718639</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B87" s="2">
-        <v>168.10298508413351</v>
+        <v>165.9481479725292</v>
       </c>
       <c r="C87" s="2">
-        <v>2.8970149158664924</v>
+        <v>4.051852027470801</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B88" s="2">
-        <v>168.64169436203457</v>
+        <v>167.02556652833135</v>
       </c>
       <c r="C88" s="2">
-        <v>2.3583056379654295</v>
+        <v>3.4744334716686467</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B89" s="2">
-        <v>169.71911291783675</v>
+        <v>168.10298508413351</v>
       </c>
       <c r="C89" s="2">
-        <v>1.2808870821632468</v>
+        <v>2.8970149158664924</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B90" s="2">
-        <v>169.71911291783675</v>
+        <v>168.64169436203457</v>
       </c>
       <c r="C90" s="2">
-        <v>1.2808870821632468</v>
+        <v>2.3583056379654295</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B91" s="2">
-        <v>170.79653147363888</v>
+        <v>169.71911291783675</v>
       </c>
       <c r="C91" s="2">
-        <v>0.20346852636112089</v>
+        <v>1.2808870821632468</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B92" s="2">
-        <v>171.87395002944106</v>
+        <v>169.71911291783675</v>
       </c>
       <c r="C92" s="2">
-        <v>0.12604997055893818</v>
+        <v>1.2808870821632468</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B93" s="2">
-        <v>172.95136858524319</v>
+        <v>170.79653147363888</v>
       </c>
       <c r="C93" s="2">
-        <v>-0.95136858524318768</v>
+        <v>0.20346852636112089</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B94" s="2">
-        <v>174.56749641894643</v>
+        <v>171.87395002944106</v>
       </c>
       <c r="C94" s="2">
-        <v>-2.5674964189464333</v>
+        <v>0.12604997055893818</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B95" s="2">
-        <v>176.72233353055074</v>
+        <v>172.95136858524319</v>
       </c>
       <c r="C95" s="2">
-        <v>-3.7223335305507419</v>
+        <v>-0.95136858524318768</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B96" s="2">
-        <v>178.33846136425399</v>
+        <v>174.56749641894643</v>
       </c>
       <c r="C96" s="2">
-        <v>-4.8384613642539875</v>
+        <v>-2.5674964189464333</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
+        <v>67</v>
+      </c>
+      <c r="B97" s="2">
+        <v>176.72233353055074</v>
+      </c>
+      <c r="C97" s="2">
+        <v>-3.7223335305507419</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>68</v>
+      </c>
+      <c r="B98" s="2">
+        <v>178.33846136425399</v>
+      </c>
+      <c r="C98" s="2">
+        <v>-4.8384613642539875</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
         <v>69</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B99" s="2">
         <v>181.57071703166042</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C99" s="2">
         <v>-6.570717031660422</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+    <row r="100" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>70</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B100" s="3">
         <v>188.03522836647335</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C100" s="3">
         <v>-13.035228366473348</v>
       </c>
     </row>

--- a/CheatSheets/ExcelLinearRegressionCheatSheet.xlsx
+++ b/CheatSheets/ExcelLinearRegressionCheatSheet.xlsx
@@ -1065,11 +1065,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="475215664"/>
-        <c:axId val="475212136"/>
+        <c:axId val="248408320"/>
+        <c:axId val="248405968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="475215664"/>
+        <c:axId val="248408320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -1100,12 +1100,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475212136"/>
+        <c:crossAx val="248405968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475212136"/>
+        <c:axId val="248405968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-10"/>
@@ -1135,7 +1135,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475215664"/>
+        <c:crossAx val="248408320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2101,11 +2101,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="475209784"/>
-        <c:axId val="475210960"/>
+        <c:axId val="248409496"/>
+        <c:axId val="248406752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="475209784"/>
+        <c:axId val="248409496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -2136,12 +2136,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475210960"/>
+        <c:crossAx val="248406752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475210960"/>
+        <c:axId val="248406752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -2172,7 +2172,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475209784"/>
+        <c:crossAx val="248409496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>

--- a/CheatSheets/ExcelLinearRegressionCheatSheet.xlsx
+++ b/CheatSheets/ExcelLinearRegressionCheatSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\ext_VMShared\LinearRegression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pemak2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1065,11 +1065,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248408320"/>
-        <c:axId val="248405968"/>
+        <c:axId val="466167824"/>
+        <c:axId val="155885600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248408320"/>
+        <c:axId val="466167824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -1100,12 +1100,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="248405968"/>
+        <c:crossAx val="155885600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248405968"/>
+        <c:axId val="155885600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-10"/>
@@ -1135,7 +1135,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="248408320"/>
+        <c:crossAx val="466167824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2101,11 +2101,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248409496"/>
-        <c:axId val="248406752"/>
+        <c:axId val="155888736"/>
+        <c:axId val="155892656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248409496"/>
+        <c:axId val="155888736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -2136,12 +2136,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="248406752"/>
+        <c:crossAx val="155892656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248406752"/>
+        <c:axId val="155892656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -2172,7 +2172,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="248409496"/>
+        <c:crossAx val="155888736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>

--- a/CheatSheets/ExcelLinearRegressionCheatSheet.xlsx
+++ b/CheatSheets/ExcelLinearRegressionCheatSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pemak2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\ext_VMShared\LinearRegression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
     <author>Petros Makariadis</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0">
+    <comment ref="C14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0">
+    <comment ref="D14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0">
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0">
+    <comment ref="C23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0">
+    <comment ref="D23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0">
+    <comment ref="E23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0" shapeId="0">
+    <comment ref="F23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0">
+    <comment ref="B25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0">
+    <comment ref="C25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>AgeMonths</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>created by: pmakaria</t>
+  </si>
+  <si>
+    <t>The below output, is generated by the "regression" method of excel's "Data Analysis" toolpack.</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -553,6 +556,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,7 +842,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Regression!$C$31:$C$100</c:f>
+              <c:f>Regression!$C$32:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -1065,11 +1069,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466167824"/>
-        <c:axId val="155885600"/>
+        <c:axId val="452534272"/>
+        <c:axId val="452534664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466167824"/>
+        <c:axId val="452534272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -1100,12 +1104,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155885600"/>
+        <c:crossAx val="452534664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155885600"/>
+        <c:axId val="452534664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-10"/>
@@ -1135,7 +1139,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466167824"/>
+        <c:crossAx val="452534272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1874,7 +1878,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Regression!$B$31:$B$100</c:f>
+              <c:f>Regression!$B$32:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -2101,11 +2105,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="155888736"/>
-        <c:axId val="155892656"/>
+        <c:axId val="455204120"/>
+        <c:axId val="455204512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155888736"/>
+        <c:axId val="455204120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -2136,12 +2140,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155892656"/>
+        <c:crossAx val="455204512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155892656"/>
+        <c:axId val="455204512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -2172,7 +2176,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155888736"/>
+        <c:crossAx val="455204120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2200,13 +2204,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2230,13 +2234,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2522,10 +2526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -2544,156 +2548,153 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.97641872482144543</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>0.95339352618193762</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>31</v>
+        <v>0.97641872482144543</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.95339352618193762</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
         <v>0.95270813686108369</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:7" ht="22.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>2.9021700231403473</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3">
         <v>70</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:7" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <v>11716.032536947136</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>11716.032536947136</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>1391.0247755161952</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <v>5.2640799521998957E-47</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>68</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>572.73617733858225</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <v>8.4225908432144454</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3">
         <v>69</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <v>12288.768714285718</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
@@ -2719,227 +2720,224 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="2">
         <v>78.677244952554659</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>2.0545405168248827</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="2">
         <v>38.2943263022837</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="2">
         <v>9.4733168185352472E-48</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="2">
         <v>74.577473182866797</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G24" s="2">
         <v>82.777016722242521</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H24" s="2">
         <v>74.577473182866797</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I24" s="2">
         <v>82.777016722242521</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="3">
         <v>0.53870927790107737</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <v>1.4443984795557476E-2</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>37.296444542559179</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>5.264079952200271E-47</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F25" s="3">
         <v>0.5098867549954974</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <v>0.56753180080665733</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="3">
         <v>0.5098867549954974</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I25" s="3">
         <v>0.56753180080665733</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="190.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+    <row r="27" spans="1:9" ht="190.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2">
-        <v>133.08688202056348</v>
-      </c>
-      <c r="C31" s="2">
-        <v>-2.086882020563479</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="2">
-        <v>133.62559129846454</v>
+        <v>133.08688202056348</v>
       </c>
       <c r="C32" s="2">
-        <v>-1.125591298464542</v>
+        <v>-2.086882020563479</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="2">
-        <v>134.16430057636563</v>
+        <v>133.62559129846454</v>
       </c>
       <c r="C33" s="2">
-        <v>-0.66430057636563333</v>
+        <v>-1.125591298464542</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="2">
-        <v>135.24171913216779</v>
+        <v>134.16430057636563</v>
       </c>
       <c r="C34" s="2">
-        <v>-1.2417191321677876</v>
+        <v>-0.66430057636563333</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>135.78042841006885</v>
+        <v>135.24171913216779</v>
       </c>
       <c r="C35" s="2">
-        <v>-1.7804284100688506</v>
+        <v>-1.2417191321677876</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="2">
-        <v>136.31913768796994</v>
+        <v>135.78042841006885</v>
       </c>
       <c r="C36" s="2">
-        <v>-2.3191376879699419</v>
+        <v>-1.7804284100688506</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" s="2">
-        <v>137.3965562437721</v>
+        <v>136.31913768796994</v>
       </c>
       <c r="C37" s="2">
-        <v>-1.3965562437720962</v>
+        <v>-2.3191376879699419</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" s="2">
-        <v>137.93526552167316</v>
+        <v>137.3965562437721</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.93526552167315913</v>
+        <v>-1.3965562437720962</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" s="2">
-        <v>138.47397479957425</v>
+        <v>137.93526552167316</v>
       </c>
       <c r="C39" s="2">
-        <v>0.52602520042574952</v>
+        <v>-0.93526552167315913</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" s="2">
-        <v>139.5513933553764</v>
+        <v>138.47397479957425</v>
       </c>
       <c r="C40" s="2">
-        <v>0.44860664462359523</v>
+        <v>0.52602520042574952</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="2">
         <v>139.5513933553764</v>
@@ -2950,557 +2948,557 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="2">
-        <v>140.62881191117856</v>
+        <v>139.5513933553764</v>
       </c>
       <c r="C42" s="2">
-        <v>-0.62881191117855906</v>
+        <v>0.44860664462359523</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="2">
         <v>140.62881191117856</v>
       </c>
       <c r="C43" s="2">
-        <v>0.37118808882144094</v>
+        <v>-0.62881191117855906</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="2">
-        <v>141.16752118907965</v>
+        <v>140.62881191117856</v>
       </c>
       <c r="C44" s="2">
-        <v>0.83247881092034959</v>
+        <v>0.37118808882144094</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45" s="2">
-        <v>141.70623046698071</v>
+        <v>141.16752118907965</v>
       </c>
       <c r="C45" s="2">
-        <v>0.29376953301928665</v>
+        <v>0.83247881092034959</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" s="2">
-        <v>142.24493974488178</v>
+        <v>141.70623046698071</v>
       </c>
       <c r="C46" s="2">
-        <v>0.75506025511822372</v>
+        <v>0.29376953301928665</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" s="2">
-        <v>142.78364902278287</v>
+        <v>142.24493974488178</v>
       </c>
       <c r="C47" s="2">
-        <v>0.21635097721713237</v>
+        <v>0.75506025511822372</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" s="2">
-        <v>143.32235830068396</v>
+        <v>142.78364902278287</v>
       </c>
       <c r="C48" s="2">
-        <v>0.67764169931604101</v>
+        <v>0.21635097721713237</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" s="2">
-        <v>143.86106757858502</v>
+        <v>143.32235830068396</v>
       </c>
       <c r="C49" s="2">
-        <v>0.13893242141497808</v>
+        <v>0.67764169931604101</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" s="2">
-        <v>144.39977685648608</v>
+        <v>143.86106757858502</v>
       </c>
       <c r="C50" s="2">
-        <v>-0.39977685648608485</v>
+        <v>0.13893242141497808</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" s="2">
-        <v>144.93848613438718</v>
+        <v>144.39977685648608</v>
       </c>
       <c r="C51" s="2">
-        <v>6.1513865612823793E-2</v>
+        <v>-0.39977685648608485</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52" s="2">
-        <v>145.47719541228827</v>
+        <v>144.93848613438718</v>
       </c>
       <c r="C52" s="2">
-        <v>-0.47719541228826756</v>
+        <v>6.1513865612823793E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" s="2">
-        <v>146.01590469018933</v>
+        <v>145.47719541228827</v>
       </c>
       <c r="C53" s="2">
-        <v>-1.0159046901893305</v>
+        <v>-0.47719541228826756</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54" s="2">
-        <v>146.55461396809039</v>
+        <v>146.01590469018933</v>
       </c>
       <c r="C54" s="2">
-        <v>-1.5546139680903934</v>
+        <v>-1.0159046901893305</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B55" s="2">
-        <v>147.09332324599148</v>
+        <v>146.55461396809039</v>
       </c>
       <c r="C55" s="2">
-        <v>-2.0933232459914848</v>
+        <v>-1.5546139680903934</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B56" s="2">
-        <v>147.63203252389258</v>
+        <v>147.09332324599148</v>
       </c>
       <c r="C56" s="2">
-        <v>-1.6320325238925761</v>
+        <v>-2.0933232459914848</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B57" s="2">
-        <v>148.7094510796947</v>
+        <v>147.63203252389258</v>
       </c>
       <c r="C57" s="2">
-        <v>-1.709451079694702</v>
+        <v>-1.6320325238925761</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B58" s="2">
-        <v>149.24816035759579</v>
+        <v>148.7094510796947</v>
       </c>
       <c r="C58" s="2">
-        <v>-2.2481603575957934</v>
+        <v>-1.709451079694702</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59" s="2">
-        <v>149.78686963549688</v>
+        <v>149.24816035759579</v>
       </c>
       <c r="C59" s="2">
-        <v>-1.7868696354968847</v>
+        <v>-2.2481603575957934</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60" s="2">
-        <v>150.32557891339795</v>
+        <v>149.78686963549688</v>
       </c>
       <c r="C60" s="2">
-        <v>-2.3255789133979476</v>
+        <v>-1.7868696354968847</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61" s="2">
-        <v>150.86428819129901</v>
+        <v>150.32557891339795</v>
       </c>
       <c r="C61" s="2">
-        <v>-2.8642881912990106</v>
+        <v>-2.3255789133979476</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B62" s="2">
-        <v>151.4029974692001</v>
+        <v>150.86428819129901</v>
       </c>
       <c r="C62" s="2">
-        <v>-2.4029974692001019</v>
+        <v>-2.8642881912990106</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B63" s="2">
-        <v>151.94170674710119</v>
+        <v>151.4029974692001</v>
       </c>
       <c r="C63" s="2">
-        <v>-1.9417067471011933</v>
+        <v>-2.4029974692001019</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64" s="2">
-        <v>152.48041602500226</v>
+        <v>151.94170674710119</v>
       </c>
       <c r="C64" s="2">
-        <v>-2.4804160250022562</v>
+        <v>-1.9417067471011933</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B65" s="2">
-        <v>153.01912530290332</v>
+        <v>152.48041602500226</v>
       </c>
       <c r="C65" s="2">
-        <v>-1.0191253029033192</v>
+        <v>-2.4804160250022562</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66" s="2">
-        <v>153.55783458080441</v>
+        <v>153.01912530290332</v>
       </c>
       <c r="C66" s="2">
-        <v>-0.55783458080441051</v>
+        <v>-1.0191253029033192</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B67" s="2">
-        <v>154.0965438587055</v>
+        <v>153.55783458080441</v>
       </c>
       <c r="C67" s="2">
-        <v>-1.0965438587055019</v>
+        <v>-0.55783458080441051</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B68" s="2">
-        <v>155.17396241450763</v>
+        <v>154.0965438587055</v>
       </c>
       <c r="C68" s="2">
-        <v>-1.1739624145076277</v>
+        <v>-1.0965438587055019</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B69" s="2">
-        <v>155.71267169240872</v>
+        <v>155.17396241450763</v>
       </c>
       <c r="C69" s="2">
-        <v>-0.71267169240871908</v>
+        <v>-1.1739624145076277</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B70" s="2">
-        <v>156.25138097030981</v>
+        <v>155.71267169240872</v>
       </c>
       <c r="C70" s="2">
-        <v>0.74861902969018956</v>
+        <v>-0.71267169240871908</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B71" s="2">
-        <v>156.79009024821087</v>
+        <v>156.25138097030981</v>
       </c>
       <c r="C71" s="2">
-        <v>0.20990975178912663</v>
+        <v>0.74861902969018956</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B72" s="2">
-        <v>157.32879952611194</v>
+        <v>156.79009024821087</v>
       </c>
       <c r="C72" s="2">
-        <v>1.1712004738880637</v>
+        <v>0.20990975178912663</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B73" s="2">
-        <v>157.86750880401303</v>
+        <v>157.32879952611194</v>
       </c>
       <c r="C73" s="2">
-        <v>3.1324911959869723</v>
+        <v>1.1712004738880637</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B74" s="2">
-        <v>158.40621808191412</v>
+        <v>157.86750880401303</v>
       </c>
       <c r="C74" s="2">
-        <v>3.093781918085881</v>
+        <v>3.1324911959869723</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
+        <v>44</v>
+      </c>
+      <c r="B75" s="2">
+        <v>158.40621808191412</v>
+      </c>
+      <c r="C75" s="2">
+        <v>3.093781918085881</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
         <v>45</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B76" s="2">
         <v>158.94492735981518</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C76" s="2">
         <v>3.855072640184801</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="11">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="11">
         <v>46</v>
       </c>
-      <c r="B76" s="11">
+      <c r="B77" s="11">
         <v>159.48363663771624</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C77" s="11">
         <v>3.5163633622837551</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
-        <v>47</v>
-      </c>
-      <c r="B77" s="2">
-        <v>160.56105519351843</v>
-      </c>
-      <c r="C77" s="2">
-        <v>2.4389448064815724</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B78" s="2">
-        <v>161.09976447141949</v>
+        <v>160.56105519351843</v>
       </c>
       <c r="C78" s="2">
-        <v>3.4002355285805095</v>
+        <v>2.4389448064815724</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B79" s="2">
-        <v>161.63847374932055</v>
+        <v>161.09976447141949</v>
       </c>
       <c r="C79" s="2">
-        <v>3.3615262506794465</v>
+        <v>3.4002355285805095</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B80" s="2">
-        <v>162.17718302722164</v>
+        <v>161.63847374932055</v>
       </c>
       <c r="C80" s="2">
-        <v>2.8228169727783552</v>
+        <v>3.3615262506794465</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B81" s="2">
-        <v>162.71589230512274</v>
+        <v>162.17718302722164</v>
       </c>
       <c r="C81" s="2">
-        <v>3.7841076948772638</v>
+        <v>2.8228169727783552</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B82" s="2">
         <v>162.71589230512274</v>
       </c>
       <c r="C82" s="2">
-        <v>4.2841076948772638</v>
+        <v>3.7841076948772638</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B83" s="2">
-        <v>163.79331086092486</v>
+        <v>162.71589230512274</v>
       </c>
       <c r="C83" s="2">
-        <v>4.206689139075138</v>
+        <v>4.2841076948772638</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B84" s="2">
-        <v>164.33202013882595</v>
+        <v>163.79331086092486</v>
       </c>
       <c r="C84" s="2">
-        <v>4.1679798611740466</v>
+        <v>4.206689139075138</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B85" s="2">
-        <v>164.87072941672704</v>
+        <v>164.33202013882595</v>
       </c>
       <c r="C85" s="2">
-        <v>4.1292705832729553</v>
+        <v>4.1679798611740466</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B86" s="2">
-        <v>165.40943869462814</v>
+        <v>164.87072941672704</v>
       </c>
       <c r="C86" s="2">
-        <v>4.5905613053718639</v>
+        <v>4.1292705832729553</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B87" s="2">
-        <v>165.9481479725292</v>
+        <v>165.40943869462814</v>
       </c>
       <c r="C87" s="2">
-        <v>4.051852027470801</v>
+        <v>4.5905613053718639</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B88" s="2">
-        <v>167.02556652833135</v>
+        <v>165.9481479725292</v>
       </c>
       <c r="C88" s="2">
-        <v>3.4744334716686467</v>
+        <v>4.051852027470801</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B89" s="2">
-        <v>168.10298508413351</v>
+        <v>167.02556652833135</v>
       </c>
       <c r="C89" s="2">
-        <v>2.8970149158664924</v>
+        <v>3.4744334716686467</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B90" s="2">
-        <v>168.64169436203457</v>
+        <v>168.10298508413351</v>
       </c>
       <c r="C90" s="2">
-        <v>2.3583056379654295</v>
+        <v>2.8970149158664924</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B91" s="2">
-        <v>169.71911291783675</v>
+        <v>168.64169436203457</v>
       </c>
       <c r="C91" s="2">
-        <v>1.2808870821632468</v>
+        <v>2.3583056379654295</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B92" s="2">
         <v>169.71911291783675</v>
@@ -3511,89 +3509,100 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B93" s="2">
-        <v>170.79653147363888</v>
+        <v>169.71911291783675</v>
       </c>
       <c r="C93" s="2">
-        <v>0.20346852636112089</v>
+        <v>1.2808870821632468</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B94" s="2">
-        <v>171.87395002944106</v>
+        <v>170.79653147363888</v>
       </c>
       <c r="C94" s="2">
-        <v>0.12604997055893818</v>
+        <v>0.20346852636112089</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B95" s="2">
-        <v>172.95136858524319</v>
+        <v>171.87395002944106</v>
       </c>
       <c r="C95" s="2">
-        <v>-0.95136858524318768</v>
+        <v>0.12604997055893818</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B96" s="2">
-        <v>174.56749641894643</v>
+        <v>172.95136858524319</v>
       </c>
       <c r="C96" s="2">
-        <v>-2.5674964189464333</v>
+        <v>-0.95136858524318768</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B97" s="2">
-        <v>176.72233353055074</v>
+        <v>174.56749641894643</v>
       </c>
       <c r="C97" s="2">
-        <v>-3.7223335305507419</v>
+        <v>-2.5674964189464333</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B98" s="2">
-        <v>178.33846136425399</v>
+        <v>176.72233353055074</v>
       </c>
       <c r="C98" s="2">
-        <v>-4.8384613642539875</v>
+        <v>-3.7223335305507419</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
+        <v>68</v>
+      </c>
+      <c r="B99" s="2">
+        <v>178.33846136425399</v>
+      </c>
+      <c r="C99" s="2">
+        <v>-4.8384613642539875</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
         <v>69</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B100" s="2">
         <v>181.57071703166042</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C100" s="2">
         <v>-6.570717031660422</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+    <row r="101" spans="1:3" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>70</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B101" s="3">
         <v>188.03522836647335</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C101" s="3">
         <v>-13.035228366473348</v>
       </c>
     </row>
